--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2711.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2711.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167490809225658</v>
+        <v>1.06379246711731</v>
       </c>
       <c r="B1">
-        <v>2.40750001749713</v>
+        <v>2.957987308502197</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.634864807128906</v>
       </c>
       <c r="D1">
-        <v>2.348926545611518</v>
+        <v>1.016380786895752</v>
       </c>
       <c r="E1">
-        <v>1.21492519084247</v>
+        <v>1.234916090965271</v>
       </c>
     </row>
   </sheetData>
